--- a/Support/B - Country Survey Details/PAK/LFS/utilities/PAK/LFP_trend.xlsx
+++ b/Support/B - Country Survey Details/PAK/LFS/utilities/PAK/LFP_trend.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb573465\OneDrive - WBG\Desktop\PAK_archive\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IrIs_\Documents\WB_gld\Support\B - Country Survey Details\PAK\LFS\utilities\PAK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C594D539-5384-4726-AEC7-401D63DD5BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C59768-724B-4CBE-A5D7-B54F8EEF3535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3480" windowWidth="2535" windowHeight="11625" xr2:uid="{39292178-E999-4B58-8613-5C574BDF2FF9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{39292178-E999-4B58-8613-5C574BDF2FF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="11">
   <si>
     <t>Year</t>
   </si>
@@ -47,6 +47,27 @@
   <si>
     <t>GLD</t>
   </si>
+  <si>
+    <t>Punjab/Sindh/NWFP/Balochistan</t>
+  </si>
+  <si>
+    <t>Punjab/Sindh/KP/Balochistan</t>
+  </si>
+  <si>
+    <t>BPS Provinces</t>
+  </si>
+  <si>
+    <t>LFS Provinces</t>
+  </si>
+  <si>
+    <t>Punjab/Sindh/KP/Balochistan/AK,Kashmir/GB</t>
+  </si>
+  <si>
+    <t>Punjab/Sindh/KP/Balochistan/Islamabad</t>
+  </si>
+  <si>
+    <t>*BPS LFP data are refined activity rate.</t>
+  </si>
 </sst>
 </file>
 
@@ -55,7 +76,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,6 +93,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -99,13 +128,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -121,6 +157,1316 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Labor Force Participation</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> Rate Estimates Comparison</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GLD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.41139999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.39889999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.40189999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.40489999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.43409999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.43390000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.43309999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.45700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.45279999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.44319999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.44829999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.4461</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B697-40AC-96E8-1E77C89AC2E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>WDI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.51900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.52300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.52800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.52700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.52600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.53600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.54300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.54200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.54600000000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.54400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.52700000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B697-40AC-96E8-1E77C89AC2E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BPS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="1">
+                  <c:v>0.42799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.433</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.437</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.45200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.45700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.45700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.45500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.45200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.443</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.44800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.44900000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B697-40AC-96E8-1E77C89AC2E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1459261184"/>
+        <c:axId val="1459263264"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1459261184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1459263264"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1459263264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.38000000000000006"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1459261184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>866773</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4860EF21-4946-86EA-8A8A-E95A5A70B77C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -420,18 +1766,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB0E4CE2-CB23-4672-9FD3-31CA4687A80F}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="4" width="14.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="37.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="49.140625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -444,166 +1793,310 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
         <v>1992</v>
       </c>
       <c r="B2" s="3">
-        <v>0.47920000000000001</v>
+        <v>0.41139999999999999</v>
       </c>
       <c r="C2" s="3">
         <v>0.51900000000000002</v>
       </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
         <v>1999</v>
       </c>
       <c r="B3" s="3">
-        <v>0.48609999999999998</v>
+        <v>0.39889999999999998</v>
       </c>
       <c r="C3" s="3">
         <v>0.52</v>
       </c>
+      <c r="D3" s="3">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
         <v>2001</v>
       </c>
       <c r="B4" s="3">
-        <v>0.47009999999999996</v>
+        <v>0.40189999999999998</v>
       </c>
       <c r="C4" s="3">
         <v>0.52300000000000002</v>
       </c>
+      <c r="D4" s="3">
+        <v>0.433</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
         <v>2003</v>
       </c>
       <c r="B5" s="3">
-        <v>0.47200000000000003</v>
+        <v>0.40489999999999998</v>
       </c>
       <c r="C5" s="3">
         <v>0.52800000000000002</v>
       </c>
+      <c r="D5" s="3">
+        <v>0.437</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
         <v>2005</v>
       </c>
       <c r="B6" s="3">
-        <v>0.50029999999999997</v>
+        <v>0.43409999999999999</v>
       </c>
       <c r="C6" s="3">
         <v>0.53</v>
       </c>
+      <c r="D6" s="3">
+        <v>0.46</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
         <v>2007</v>
       </c>
       <c r="B7" s="3">
-        <v>0.50080000000000002</v>
+        <v>0.43</v>
       </c>
       <c r="C7" s="3">
         <v>0.52700000000000002</v>
       </c>
+      <c r="D7" s="3">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
         <v>2008</v>
       </c>
       <c r="B8" s="3">
-        <v>0.50529999999999997</v>
+        <v>0.43390000000000001</v>
       </c>
       <c r="C8" s="3">
         <v>0.52600000000000002</v>
       </c>
+      <c r="D8" s="3">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
         <v>2010</v>
       </c>
       <c r="B9" s="3">
-        <v>0.504</v>
+        <v>0.43309999999999998</v>
       </c>
       <c r="C9" s="3">
         <v>0.53600000000000003</v>
       </c>
+      <c r="D9" s="3">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
         <v>2012</v>
       </c>
       <c r="B10" s="3">
-        <v>0.50349999999999995</v>
+        <v>0.45700000000000002</v>
       </c>
       <c r="C10" s="3">
         <v>0.54</v>
       </c>
+      <c r="D10" s="3">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
         <v>2013</v>
       </c>
       <c r="B11" s="3">
-        <v>0.53110000000000002</v>
+        <v>0.45700000000000002</v>
       </c>
       <c r="C11" s="3">
         <v>0.54300000000000004</v>
       </c>
+      <c r="D11" s="3">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
         <v>2014</v>
       </c>
       <c r="B12" s="3">
-        <v>0.53249999999999997</v>
+        <v>0.45279999999999998</v>
       </c>
       <c r="C12" s="3">
         <v>0.54200000000000004</v>
       </c>
+      <c r="D12" s="3">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
         <v>2017</v>
       </c>
       <c r="B13" s="3">
-        <v>0.51849999999999996</v>
+        <v>0.44319999999999998</v>
       </c>
       <c r="C13" s="3">
         <v>0.54600000000000004</v>
       </c>
+      <c r="D13" s="3">
+        <v>0.443</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
         <v>2018</v>
       </c>
       <c r="B14" s="3">
-        <v>0.5262</v>
+        <v>0.44829999999999998</v>
       </c>
       <c r="C14" s="3">
         <v>0.54400000000000004</v>
       </c>
+      <c r="D14" s="3">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
         <v>2020</v>
       </c>
       <c r="B15" s="3">
-        <v>0.54300000000000004</v>
+        <v>0.4461</v>
       </c>
       <c r="C15" s="3">
         <v>0.52700000000000002</v>
       </c>
+      <c r="D15" s="3">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" s="3"/>
     </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A17:F17"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>